--- a/biology/Médecine/Georges_Haret/Georges_Haret.xlsx
+++ b/biology/Médecine/Georges_Haret/Georges_Haret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Haret, né Émile Marie de Riom le 17 juin 1874 dans le 9e arrondissement de Paris et mort le 21 décembre 1932 dans le même arrondissement, est un radiologue, pionnier de la radiologie médicale en France.
 </t>
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et famille
-Enfant naturel, Georges Haret naît en 1874 à Paris sous le nom d'Émile Marie de Riom[1]. Sa mère, âgée de 29 ans et née à Ussel, déclare alors s'appeler Marie de Riom. En 1877, c'est sous sa véritable identité, Catherine Riom, qu'elle reconnaît officiellement son fils. En 1884, un certain Émile Haret le reconnaît à son tour pour son fils naturel, lui donnant son patronyme.
-En mars 1902, Catherine Riom et Émile Haret se marient, légitimant Émile Marie Haret[2], quelques mois avant que ce dernier ne se marie à son tour[3].
-Carrière
-Les travaux de Georges[Note 1] Haret posent les fondements de la radiologie en France. Il a reçu, à ce titre, la Légion d'honneur. 
-Peu conscient des dangers des rayonnements ionisants pour la santé, il succombe des suites d'une surexposition prolongée, le 21 décembre 1932[4],[5].
-Il est inhumé trois jours plus tard au cimetière du Père-Lachaise (53e division)[6]. 
+          <t>Jeunesse et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enfant naturel, Georges Haret naît en 1874 à Paris sous le nom d'Émile Marie de Riom. Sa mère, âgée de 29 ans et née à Ussel, déclare alors s'appeler Marie de Riom. En 1877, c'est sous sa véritable identité, Catherine Riom, qu'elle reconnaît officiellement son fils. En 1884, un certain Émile Haret le reconnaît à son tour pour son fils naturel, lui donnant son patronyme.
+En mars 1902, Catherine Riom et Émile Haret se marient, légitimant Émile Marie Haret, quelques mois avant que ce dernier ne se marie à son tour.
 </t>
         </is>
       </c>
@@ -545,13 +558,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Georges[Note 1] Haret posent les fondements de la radiologie en France. Il a reçu, à ce titre, la Légion d'honneur. 
+Peu conscient des dangers des rayonnements ionisants pour la santé, il succombe des suites d'une surexposition prolongée, le 21 décembre 1932,.
+Il est inhumé trois jours plus tard au cimetière du Père-Lachaise (53e division). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Haret</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Haret</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plaque a été apposée sur l'immeuble qu'il a habité 8, rue Pierre-Haret (9e arrondissement), qui tient son nom, depuis 1903, d'un propriétaire qui lui était vraisemblablement lié.
-Son nom est gravé sur le Mémorial de radiologie (de), qui commémore les pionniers et martyrs de la radioactivité (physiciens, chimistes, médecins, infirmiers, laborantins etc), victimes parmi les premiers utilisateurs des rayons X dans le monde entier. Le mémorial qui comportait à l'origine 159 noms a été érigé dans le jardin de l'ancien hôpital Saint-Georges (de) à Hambourg (Allemagne) et a été inauguré le 4 avril 1936[5].
+Son nom est gravé sur le Mémorial de radiologie (de), qui commémore les pionniers et martyrs de la radioactivité (physiciens, chimistes, médecins, infirmiers, laborantins etc), victimes parmi les premiers utilisateurs des rayons X dans le monde entier. Le mémorial qui comportait à l'origine 159 noms a été érigé dans le jardin de l'ancien hôpital Saint-Georges (de) à Hambourg (Allemagne) et a été inauguré le 4 avril 1936.
 			Mémorial de radiologie, Clinique Asklepios Saint-Georges à Hambourg, (Allemagne)
 </t>
         </is>
